--- a/scripts/report/ratings-v5.xlsx
+++ b/scripts/report/ratings-v5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1103,36 +1103,36 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4DabfkFLBojKxKol8UQf</t>
+          <t>GVcKGek5oi588vXiJqXN</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:39:06.875Z</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3K5o2d8SL2y20FQOPgFK</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
-      </c>
+          <t>34uMSmKQEG01iNldtrb2</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1145,42 +1145,46 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>qo1Ard5Dt1XhKS3AoctD</t>
+          <t>4DabfkFLBojKxKol8UQf</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>3X40QHC5RPek22w2EFfl</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+          <t>3K5o2d8SL2y20FQOPgFK</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1188,43 +1192,43 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>qo1Ard5Dt1XhKS3AoctD</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>mip_splatting</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>UVQaqFSVQtXKKRAN7gGS</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3ciEcSPrUpSHsZBJPXoz</t>
+          <t>3X40QHC5RPek22w2EFfl</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1236,7 +1240,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1246,37 +1250,33 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3oCaNI7N11UjdwsgwiY6</t>
+          <t>UVQaqFSVQtXKKRAN7gGS</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:47:27.676Z</t>
-        </is>
-      </c>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5YOvj1QsjdsyS5tAc5my</t>
+          <t>3ciEcSPrUpSHsZBJPXoz</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1308,31 +1308,31 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1njZxACnAGt6T5qLMRlL</t>
+          <t>3oCaNI7N11UjdwsgwiY6</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:47:27.676Z</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5dXobnKMzfF8oKkUeWCc</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
+          <t>5YOvj1QsjdsyS5tAc5my</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1340,12 +1340,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1355,32 +1355,36 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>AXCAW0Sac9plQWEH2pi4</t>
+          <t>1njZxACnAGt6T5qLMRlL</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>63ywzEuTOrpMNBouiJuq</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>5dXobnKMzfF8oKkUeWCc</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1388,12 +1392,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1408,27 +1412,23 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4OAdaBnoabOerIZRSXkP</t>
+          <t>AXCAW0Sac9plQWEH2pi4</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:56:46.441Z</t>
-        </is>
-      </c>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6FiFoUdTOR57B8K1txA0</t>
+          <t>63ywzEuTOrpMNBouiJuq</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1440,51 +1440,51 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3BPbSeLlA1pP4U3oOUfy</t>
+          <t>4OAdaBnoabOerIZRSXkP</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:56:46.441Z</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>6GXbN8XhMCIk1jY6jIYF</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4</v>
-      </c>
+          <t>6FiFoUdTOR57B8K1txA0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1492,47 +1492,51 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Zixm6sJuTnb8M6Q8NCrT</t>
+          <t>3BPbSeLlA1pP4U3oOUfy</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>6RmAFodQsSBY7SHiEFMI</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>6GXbN8XhMCIk1jY6jIYF</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1560,31 +1564,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0YwyBZxWsQpHsGv8LS61</t>
+          <t>Zixm6sJuTnb8M6Q8NCrT</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7KGaWT2rYsGwfUQ9Q5ET</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
+          <t>6RmAFodQsSBY7SHiEFMI</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1592,47 +1592,51 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
+          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9cfqp5ZF6aZKsFMPR82A</t>
+          <t>0YwyBZxWsQpHsGv8LS61</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>7LO8wIDriXgwcSP8JaR1</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+          <t>7KGaWT2rYsGwfUQ9Q5ET</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1640,12 +1644,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1655,28 +1659,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>mi9MQgjFbfKcSlMErwnP</t>
+          <t>9cfqp5ZF6aZKsFMPR82A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>7PnOpEYqn8syG1lMpIoV</t>
+          <t>7LO8wIDriXgwcSP8JaR1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1693,12 +1697,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1708,31 +1712,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6VfrcjCKMIYNp2ZeSZNs</t>
+          <t>mi9MQgjFbfKcSlMErwnP</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>7VIAVgkaOiAjQD5UsCNe</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
+          <t>7PnOpEYqn8syG1lMpIoV</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1740,47 +1740,51 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
+          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3NkAoiyXwCxKI3mx9htk</t>
+          <t>6VfrcjCKMIYNp2ZeSZNs</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>809Nbxo1b6ezGu1cNyBi</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>7VIAVgkaOiAjQD5UsCNe</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1788,43 +1792,43 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3NkAoiyXwCxKI3mx9htk</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>eagles</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>sAtyji8Dv0Wf1LguUxCd</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>default</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>8OevwkiRuVeizKFMBIFb</t>
+          <t>809Nbxo1b6ezGu1cNyBi</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1836,43 +1840,47 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>cUBNhZ3TUJP2n8AC01dm</t>
+          <t>vkzw6nGURAR23rFJzMQ8</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:40:46.325Z</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>8dgrB1lbK05MfOKVYgvq</t>
+          <t>8G3SJCA8c402V3ilcmcb</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1884,22 +1892,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1909,18 +1917,18 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>wWvmTfL2WqIoehOZiqhS</t>
+          <t>sAtyji8Dv0Wf1LguUxCd</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>8njNyFv0W1M9JQGE8Ikj</t>
+          <t>8OevwkiRuVeizKFMBIFb</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -1932,7 +1940,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1942,7 +1950,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1952,12 +1960,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>mFJ4yoGS3bPoMiYmzpCw</t>
+          <t>cUBNhZ3TUJP2n8AC01dm</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1968,7 +1976,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>8oQyc74Fryn2qseo4fhz</t>
+          <t>8dgrB1lbK05MfOKVYgvq</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -1980,17 +1988,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2000,23 +2008,23 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>rPmdv8ahumezNP4t070S</t>
+          <t>wWvmTfL2WqIoehOZiqhS</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>9OXROZTAxjyQiz8yM8xg</t>
+          <t>8njNyFv0W1M9JQGE8Ikj</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2028,12 +2036,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2048,27 +2056,23 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ttzg9zc1fkk5DwM1rnuN</t>
+          <t>mFJ4yoGS3bPoMiYmzpCw</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:43:37.517Z</t>
-        </is>
-      </c>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>AGAGI20u345WQfmhaNRl</t>
+          <t>8oQyc74Fryn2qseo4fhz</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2080,17 +2084,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2100,12 +2104,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>bL1qBcfZkIzvghNOYD2P</t>
+          <t>rPmdv8ahumezNP4t070S</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2113,14 +2117,10 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2025-01-30T16:14:37.201Z</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>B3YafwHBw7VL18HL2iYc</t>
+          <t>9OXROZTAxjyQiz8yM8xg</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2142,41 +2142,41 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4F14IrWf2S6Uwzm7ajl4</t>
+          <t>975raRSXRkIFnpPvU8Cp</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:42:47.713Z</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>C49JBc2Um2B1khgodGze</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>4</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5</v>
-      </c>
+          <t>ADXJYqMouGTqcA70iNYs</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2184,47 +2184,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ttzg9zc1fkk5DwM1rnuN</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>eagles</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>ufs3gdRSkQhtUMtsWnlh</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>mcmc</t>
-        </is>
-      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-01-31T09:52:11.457Z</t>
+          <t>2025-01-31T09:43:37.517Z</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>CPno5fWGYFtU9RisJACI</t>
+          <t>AGAGI20u345WQfmhaNRl</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>528f3c4b-7c50-4715-bda7-f85f27317a8d</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9kLF0x1etY4N8dpAzZ6z</t>
+          <t>MOythLhT9iAUgjmKYrmP</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2269,18 +2269,18 @@
           <t>mini_splatting</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:41:59.676Z</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>CmYEQBJa6JCN9S1tNVrj</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3</v>
-      </c>
+          <t>AQzxNQEhhZpK5YWej4QV</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2298,33 +2298,37 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>UHdpshT8iaRdCf7zXBoO</t>
+          <t>bL1qBcfZkIzvghNOYD2P</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-01-30T16:14:37.201Z</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>E4INkNDqMaTCmh6pOidw</t>
+          <t>B3YafwHBw7VL18HL2iYc</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2336,51 +2340,51 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>4F14IrWf2S6Uwzm7ajl4</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>eagles</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>aAH92wnhxLisnz8xXO3g</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-01-30T16:16:48.509Z</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>EKPZpeEv91YPjcrq7shu</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>C49JBc2Um2B1khgodGze</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2393,12 +2397,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2408,31 +2412,31 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5C5kkshRarmXiRx92JRx</t>
+          <t>ufs3gdRSkQhtUMtsWnlh</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:52:11.457Z</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>GB6L3zRFWhcORe0n1R9D</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>3</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5</v>
-      </c>
+          <t>CPno5fWGYFtU9RisJACI</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2455,36 +2459,36 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>528f3c4b-7c50-4715-bda7-f85f27317a8d</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>XmPuNNg0GtobFCoFyKgU</t>
+          <t>9kLF0x1etY4N8dpAzZ6z</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:52:58.539Z</t>
-        </is>
-      </c>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>GVTYYMLNo88AbjeWuJPo</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+          <t>CmYEQBJa6JCN9S1tNVrj</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2492,12 +2496,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2507,17 +2511,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>pWn2laDUFAcAfzPal2kO</t>
+          <t>2kRptcQx5PSo54pmymCi</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2527,12 +2531,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025-01-31T09:55:17.865Z</t>
+          <t>2025-01-31T12:33:56.038Z</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>GbyaOd4gdyglCa3n88p9</t>
+          <t>DknlHVOPGc5uhLGw95A1</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2544,47 +2548,43 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>XwS3dJl68CrfiNvyBxva</t>
+          <t>UHdpshT8iaRdCf7zXBoO</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025-01-30T13:57:45.995Z</t>
-        </is>
-      </c>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Ior7IYUQhlBeOHR8hZ42</t>
+          <t>E4INkNDqMaTCmh6pOidw</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2616,23 +2616,27 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>pJ7XXAHYEM4erqfr0coV</t>
+          <t>aAH92wnhxLisnz8xXO3g</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-01-30T16:16:48.509Z</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>IwR0vATMP8DwXlUvMCIJ</t>
+          <t>EKPZpeEv91YPjcrq7shu</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2644,7 +2648,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2664,27 +2668,31 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Qs0rCHvnf9gXyZcivi26</t>
+          <t>5C5kkshRarmXiRx92JRx</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>J5Qvc9kVQKAQy2hZLiMf</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+          <t>GB6L3zRFWhcORe0n1R9D</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2692,7 +2700,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2717,22 +2725,22 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>a90syLsnuohQbwXCwh4l</t>
+          <t>XmPuNNg0GtobFCoFyKgU</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-01-31T09:57:31.511Z</t>
+          <t>2025-01-31T09:52:58.539Z</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>JGQHrJJEr6bvasmZjdJb</t>
+          <t>GVTYYMLNo88AbjeWuJPo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2744,22 +2752,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2769,22 +2777,22 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>w1ddIWVExVqT9ohhNHvo</t>
+          <t>pWn2laDUFAcAfzPal2kO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-01-31T09:46:26.244Z</t>
+          <t>2025-01-31T09:55:17.865Z</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>JuOLTsSYqelIn0PXKJQg</t>
+          <t>GbyaOd4gdyglCa3n88p9</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2801,42 +2809,42 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>tuW3rIrhsXQOLUzNRRrT</t>
+          <t>qpFpDzcv49NJ8SLBlrjP</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-01-31T09:49:28.988Z</t>
+          <t>2025-01-31T12:28:50.363Z</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>KsgdhyhkxwSjP1O0SoHx</t>
+          <t>I79EfAiFGEobqaCOOvFW</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2848,12 +2856,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2863,36 +2871,36 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5QLfEePCnZ99zOevCDGL</t>
+          <t>XwS3dJl68CrfiNvyBxva</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2025-01-30T13:57:45.995Z</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>L9p36CvLC15ACnwDUgx4</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>4</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3</v>
-      </c>
+          <t>Ior7IYUQhlBeOHR8hZ42</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2905,7 +2913,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2915,17 +2923,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>wbJENHoedilRBPklpO3w</t>
+          <t>pJ7XXAHYEM4erqfr0coV</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2933,14 +2941,10 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:58:16.600Z</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>LPsssNaaU9gVn0rBs5SY</t>
+          <t>IwR0vATMP8DwXlUvMCIJ</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -2957,7 +2961,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2967,36 +2971,32 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1SUpmaSAQQNMdD8FibPB</t>
+          <t>Qs0rCHvnf9gXyZcivi26</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>MDGLCGGLsJZCqma8nnGv</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4</v>
-      </c>
+          <t>J5Qvc9kVQKAQy2hZLiMf</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3024,31 +3024,31 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29sPSf4gbZUmlbkLou5s</t>
+          <t>a90syLsnuohQbwXCwh4l</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:57:31.511Z</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>MIa0jFtbSCU2El3EFDZu</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>3</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4</v>
-      </c>
+          <t>JGQHrJJEr6bvasmZjdJb</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3056,32 +3056,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6gwgrl1Y6W32aOHhxbVS</t>
+          <t>RBpxGywp1VWPYDuyRPyU</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3089,18 +3089,18 @@
           <t>mini_splatting</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:44:26.894Z</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>N65inbIwJ0l9IefyIyPz</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>4</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2</v>
-      </c>
+          <t>JqiM3ggMorlJ2MeEZZZs</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3108,17 +3108,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3133,22 +3133,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>hvYmnEoeMgb6rH24wXYk</t>
+          <t>w1ddIWVExVqT9ohhNHvo</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2025-01-31T09:59:41.051Z</t>
+          <t>2025-01-31T09:46:26.244Z</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>NfJFrGfJmueRwu7D09PP</t>
+          <t>JuOLTsSYqelIn0PXKJQg</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3165,17 +3165,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3185,22 +3185,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>sGEqUwHWXm4uNV50fIul</t>
+          <t>tuW3rIrhsXQOLUzNRRrT</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2025-01-31T09:57:48.285Z</t>
+          <t>2025-01-31T09:49:28.988Z</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>OHA9zjYaEbs4geRv45bD</t>
+          <t>KsgdhyhkxwSjP1O0SoHx</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3227,36 +3227,36 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>B1MQNtezV5tvZCdpSP2h</t>
+          <t>5QLfEePCnZ99zOevCDGL</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:54:02.573Z</t>
-        </is>
-      </c>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>OqJ4CQthxNp8wzbvdWLk</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>L9p36CvLC15ACnwDUgx4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>4</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3264,12 +3264,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>fz5mo0LrUA5WkIPtYMAv</t>
+          <t>wbJENHoedilRBPklpO3w</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3297,10 +3297,14 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:58:16.600Z</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>PZDjhro6FOr8a2KdCEi2</t>
+          <t>LPsssNaaU9gVn0rBs5SY</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3327,32 +3331,36 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
+          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>x4yFyy0x8GgtgYalqlpa</t>
+          <t>1SUpmaSAQQNMdD8FibPB</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>PsvvzMctPjauFXmXSIlz</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+          <t>MDGLCGGLsJZCqma8nnGv</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3360,12 +3368,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3375,32 +3383,36 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
+          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>I9Wx3YAx59AhIH6G9r3n</t>
+          <t>29sPSf4gbZUmlbkLou5s</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Q8zhTJPLyjzuvRggTRYd</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>MIa0jFtbSCU2El3EFDZu</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3408,7 +3420,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3418,12 +3430,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3433,25 +3445,25 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0uSshiYpzXHdIn1okZsk</t>
+          <t>6gwgrl1Y6W32aOHhxbVS</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>QIHJ1odwoylsYRzFbHo7</t>
+          <t>N65inbIwJ0l9IefyIyPz</t>
         </is>
       </c>
       <c r="K60" t="n">
         <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3460,43 +3472,47 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>sGEqUwHWXm4uNV50fIul</t>
+          <t>hvYmnEoeMgb6rH24wXYk</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:59:41.051Z</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>RjOK44pFGaCizACdnS9R</t>
+          <t>NfJFrGfJmueRwu7D09PP</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3508,32 +3524,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>TNk0CWB0Jr5a4YHBG2P9</t>
+          <t>sGEqUwHWXm4uNV50fIul</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3541,10 +3557,14 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:57:48.285Z</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>T9mFuJqk6OxTyXzK4NLg</t>
+          <t>OHA9zjYaEbs4geRv45bD</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3556,7 +3576,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3581,22 +3601,22 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>M5MsCkIVVjZ2dVNaDkmv</t>
+          <t>B1MQNtezV5tvZCdpSP2h</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2025-01-31T09:50:01.279Z</t>
+          <t>2025-01-31T09:54:02.573Z</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>TQOcpvmdxaIHfOOt7hp4</t>
+          <t>OqJ4CQthxNp8wzbvdWLk</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3608,32 +3628,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>UCdEcmpUKf0Z5HK1x6hH</t>
+          <t>fz5mo0LrUA5WkIPtYMAv</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3644,7 +3664,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>UqsoROWccuSKsNl30pNK</t>
+          <t>PZDjhro6FOr8a2KdCEi2</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3661,7 +3681,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3676,27 +3696,23 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>GuYpzJlvx3OCimBo84uN</t>
+          <t>x4yFyy0x8GgtgYalqlpa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:53:21.543Z</t>
-        </is>
-      </c>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>VGKaK4RPV0C8gKBUgoOT</t>
+          <t>PsvvzMctPjauFXmXSIlz</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3708,51 +3724,47 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>I9Wx3YAx59AhIH6G9r3n</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>eagles</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>2kRptcQx5PSo54pmymCi</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>VMsKz72kCWNGJP6ZGlZ5</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>5</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3</v>
-      </c>
+          <t>Q8zhTJPLyjzuvRggTRYd</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3760,43 +3772,47 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>xokGmEGRC6jlGHRcOllW</t>
+          <t>CIxZgzkOUIedPVRaGGBW</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:46:41.202Z</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>VPYXgRxCcZa0wURBj08l</t>
+          <t>QEoeTxshgCiFgS7OJRO3</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3808,7 +3824,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3818,40 +3834,40 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
+          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0Qbwb7Lis9pOLUVOSIrO</t>
+          <t>0uSshiYpzXHdIn1okZsk</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>VaTsU5q2TjosMgFloSxj</t>
+          <t>QIHJ1odwoylsYRzFbHo7</t>
         </is>
       </c>
       <c r="K68" t="n">
         <v>4</v>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -3860,7 +3876,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3870,7 +3886,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3880,27 +3896,23 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>m0v4VaANDWXTZ9X7dxgd</t>
+          <t>sGEqUwHWXm4uNV50fIul</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:59:11.570Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Vp3xiqqU4jzeVVQxyZzq</t>
+          <t>RjOK44pFGaCizACdnS9R</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3912,17 +3924,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3932,23 +3944,27 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>XK2aVsag06EhMrj9f7dh</t>
+          <t>dT956OxADlFt2Dnn2oOz</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:43:09.125Z</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Vrl9XaRjm2Iw1E69BiE6</t>
+          <t>SGtvGabl136E7utwB2Eh</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3965,42 +3981,38 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>w1ddIWVExVqT9ohhNHvo</t>
+          <t>TNk0CWB0Jr5a4YHBG2P9</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:44:29.384Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>X0tJrGBXDnGFphrRukzg</t>
+          <t>T9mFuJqk6OxTyXzK4NLg</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4012,43 +4024,47 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>M5MsCkIVVjZ2dVNaDkmv</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
           <t>mip_splatting</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>mi9MQgjFbfKcSlMErwnP</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:50:01.279Z</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>YJt1VJjRkdQMtpwq8tFp</t>
+          <t>TQOcpvmdxaIHfOOt7hp4</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4060,7 +4076,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4070,22 +4086,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>LTxhe1fwno4t5rxRTYH7</t>
+          <t>UCdEcmpUKf0Z5HK1x6hH</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4093,14 +4109,10 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:45:16.494Z</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>YhRyngURcHmDL4rqpWmn</t>
+          <t>UqsoROWccuSKsNl30pNK</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4112,17 +4124,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4132,31 +4144,31 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>4o2MS9PcRonKh1JZMUXr</t>
+          <t>GuYpzJlvx3OCimBo84uN</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:53:21.543Z</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Z5fokkWGJnEX02EjVlLC</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>3</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2</v>
-      </c>
+          <t>VGKaK4RPV0C8gKBUgoOT</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4164,7 +4176,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4179,17 +4191,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>sAtyji8Dv0Wf1LguUxCd</t>
+          <t>STM4xI9X7gXL7C5l0YGV</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4197,10 +4209,14 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:33:24.963Z</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Z5y7LNmDfXQv9nWjzq1u</t>
+          <t>VHfHq37y3Tju5TW9J4U1</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4212,17 +4228,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4232,27 +4248,31 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>oEyDI8Mvie1PcI2HyLOt</t>
+          <t>2kRptcQx5PSo54pmymCi</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Zi8JXUen844Dz6544Ola</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+          <t>VMsKz72kCWNGJP6ZGlZ5</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>5</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4260,22 +4280,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4285,7 +4305,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>YtU5Aq9vtx118e7rZwZn</t>
+          <t>xokGmEGRC6jlGHRcOllW</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4296,7 +4316,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>aXvfi92LZwKNnZgMsEA0</t>
+          <t>VPYXgRxCcZa0wURBj08l</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4308,51 +4328,51 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>TV5zTfVsxupQ20rIqyPC</t>
+          <t>0Qbwb7Lis9pOLUVOSIrO</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>2025-01-30T13:59:35.905Z</t>
-        </is>
-      </c>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>boQKPEIzXN4d8lPs5gFF</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+          <t>VaTsU5q2TjosMgFloSxj</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>4</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4360,47 +4380,47 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>m0v4VaANDWXTZ9X7dxgd</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
           <t>eagles</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>xqxTCtx1hcwpQzoIq86W</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>mcmc</t>
-        </is>
-      </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2025-01-31T09:55:47.548Z</t>
+          <t>2025-01-31T09:59:11.570Z</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>bqIgqD5QIv4xdXfDEBIa</t>
+          <t>Vp3xiqqU4jzeVVQxyZzq</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4412,12 +4432,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4427,17 +4447,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>mb7aK1CLUKuG5u2YQRpW</t>
+          <t>XK2aVsag06EhMrj9f7dh</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4448,7 +4468,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>c91Uiu9itBbUfL0YWvdl</t>
+          <t>Vrl9XaRjm2Iw1E69BiE6</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4460,7 +4480,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4470,22 +4490,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>528f3c4b-7c50-4715-bda7-f85f27317a8d</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>7m6zXp8WYfmoogjZMNaC</t>
+          <t>R22w8dILcWE83JYIY0lQ</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4493,18 +4513,18 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:45:19.436Z</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>cIRgxgVECKpbeGR9s0xC</t>
-        </is>
-      </c>
-      <c r="K81" t="n">
-        <v>3</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4</v>
-      </c>
+          <t>WHe9UKtkixvFCaMAHYHN</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4512,12 +4532,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4532,23 +4552,27 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>I9Wx3YAx59AhIH6G9r3n</t>
+          <t>zETM3glnKwWMSjAaJwb4</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:46:55.280Z</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>cjXFWohRNARQaXACXrFU</t>
+          <t>WNkHcPUYRRfFRLLPsZyI</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4560,17 +4584,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4580,23 +4604,27 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ea53b8e7-e18d-4eca-b3ab-55fb01790c29</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>oAWxAZIYf3zMUspUMSPH</t>
+          <t>X48v4DMV4STeQD9oCk2q</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:45:04.578Z</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>d9OMRIKcmSQxjecG7ojL</t>
+          <t>WnMWCWjU2onl2bcOMO8e</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4618,37 +4646,37 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>bh6Ur0uYdd0GghewF1lR</t>
+          <t>w1ddIWVExVqT9ohhNHvo</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2025-01-30T16:17:27.975Z</t>
+          <t>2025-01-31T09:44:29.384Z</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>dD7IlpoBSAoVDUuRnrFM</t>
+          <t>X0tJrGBXDnGFphrRukzg</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4660,12 +4688,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4675,32 +4703,28 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>LGt5Gax4C39pll46ZRfk</t>
+          <t>mi9MQgjFbfKcSlMErwnP</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:53:48.795Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>ePDd94Q21qfpyDCNvo78</t>
+          <t>YJt1VJjRkdQMtpwq8tFp</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4717,12 +4741,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4732,23 +4756,27 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>U9OwhmTNTnCiO67RYSkC</t>
+          <t>LTxhe1fwno4t5rxRTYH7</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:45:16.494Z</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>eRpXCEmoMZW6kPYJJ0Th</t>
+          <t>YhRyngURcHmDL4rqpWmn</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4760,12 +4788,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4780,12 +4808,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>opFwoeaHI54U50IjDTWC</t>
+          <t>4o2MS9PcRonKh1JZMUXr</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4793,18 +4821,18 @@
           <t>mini_splatting</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:45:46.529Z</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>fqhSNDbndwVTL3dDaFIt</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+          <t>Z5fokkWGJnEX02EjVlLC</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>3</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4812,22 +4840,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4837,18 +4865,18 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>oAdeIrlRkXuAXMcVVrvO</t>
+          <t>sAtyji8Dv0Wf1LguUxCd</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>hGMv67pm3H96JuSsNLvV</t>
+          <t>Z5y7LNmDfXQv9nWjzq1u</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4860,12 +4888,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4875,32 +4903,28 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>7oGbAIfCS0WsrzCTv0Ut</t>
+          <t>oEyDI8Mvie1PcI2HyLOt</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>2025-01-30T13:56:17.290Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>i0h3bc9nc9sTo9g09Oy0</t>
+          <t>Zi8JXUen844Dz6544Ola</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4912,47 +4936,43 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>QEBs5TlLCAooCeKAZbVP</t>
+          <t>YtU5Aq9vtx118e7rZwZn</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:47:54.457Z</t>
-        </is>
-      </c>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>jWLNppzMVCRzzQeNb2rm</t>
+          <t>aXvfi92LZwKNnZgMsEA0</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4964,7 +4984,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4974,7 +4994,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4984,12 +5004,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>zYG7EHc4pWZ74BzujAld</t>
+          <t>TV5zTfVsxupQ20rIqyPC</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4997,10 +5017,14 @@
           <t>eagles</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2025-01-30T13:59:35.905Z</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>jyIT0QGt8WAsm1R1mZOY</t>
+          <t>boQKPEIzXN4d8lPs5gFF</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5012,7 +5036,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5022,37 +5046,37 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>t7wCa3WvfTddEoNPAtgp</t>
+          <t>xqxTCtx1hcwpQzoIq86W</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2025-01-30T13:54:20.442Z</t>
+          <t>2025-01-31T09:55:47.548Z</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>kghziYgKQHhNrHI29txZ</t>
+          <t>bqIgqD5QIv4xdXfDEBIa</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5064,7 +5088,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5074,37 +5098,33 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>mwonPR4rJcKlHq6K1URw</t>
+          <t>mb7aK1CLUKuG5u2YQRpW</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:51:28.011Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>kyDGjSrKtuB4seZiz5fp</t>
+          <t>c91Uiu9itBbUfL0YWvdl</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5116,7 +5136,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5126,22 +5146,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>528f3c4b-7c50-4715-bda7-f85f27317a8d</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>VaeIQFPXa7qr2TO0regy</t>
+          <t>7m6zXp8WYfmoogjZMNaC</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5152,11 +5172,15 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>lPpSYvRzEPrmXokxdewG</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+          <t>cIRgxgVECKpbeGR9s0xC</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>3</v>
+      </c>
+      <c r="L94" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5174,22 +5198,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>jZFKuWgNQEGaT1W2xXVd</t>
+          <t>I9Wx3YAx59AhIH6G9r3n</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5197,14 +5221,10 @@
           <t>eagles</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>2025-01-30T13:53:26.466Z</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>lmdDo4sVVlQNfMLaT1Jw</t>
+          <t>cjXFWohRNARQaXACXrFU</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5216,17 +5236,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5236,23 +5256,23 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>50f7c289-6a7d-4400-9f4f-32c59562faec</t>
+          <t>ea53b8e7-e18d-4eca-b3ab-55fb01790c29</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>wNmqgdMKte48MR0lSs8V</t>
+          <t>oAWxAZIYf3zMUspUMSPH</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>m4FswNEJNTsojZRsHyXo</t>
+          <t>d9OMRIKcmSQxjecG7ojL</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5264,17 +5284,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5284,23 +5304,27 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0bIsWmiOeRXEyKdMrHB1</t>
+          <t>bh6Ur0uYdd0GghewF1lR</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2025-01-30T16:17:27.975Z</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>nadf2hKw5G0sXVhtRBXb</t>
+          <t>dD7IlpoBSAoVDUuRnrFM</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5312,7 +5336,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5327,28 +5351,32 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Yf4W2hBsBJLunivtbe0p</t>
+          <t>LGt5Gax4C39pll46ZRfk</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:53:48.795Z</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>nfpbc9bLg6eG4214OzKL</t>
+          <t>ePDd94Q21qfpyDCNvo78</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5360,51 +5388,47 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3oCaNI7N11UjdwsgwiY6</t>
+          <t>U9OwhmTNTnCiO67RYSkC</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>oaxzMeJDa04t3NlPnZzJ</t>
-        </is>
-      </c>
-      <c r="K99" t="n">
-        <v>3</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3</v>
-      </c>
+          <t>eRpXCEmoMZW6kPYJJ0Th</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5417,7 +5441,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5427,28 +5451,32 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>AXCAW0Sac9plQWEH2pi4</t>
+          <t>opFwoeaHI54U50IjDTWC</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:45:46.529Z</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>pL663xq2pmI7OwqkQS6N</t>
+          <t>fqhSNDbndwVTL3dDaFIt</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5470,22 +5498,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>9cfqp5ZF6aZKsFMPR82A</t>
+          <t>oAdeIrlRkXuAXMcVVrvO</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5496,15 +5524,11 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>phxct5YusNvHcQksdyOb</t>
-        </is>
-      </c>
-      <c r="K101" t="n">
-        <v>2</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3</v>
-      </c>
+          <t>hGMv67pm3H96JuSsNLvV</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5512,43 +5536,47 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4F14IrWf2S6Uwzm7ajl4</t>
+          <t>7oGbAIfCS0WsrzCTv0Ut</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2025-01-30T13:56:17.290Z</t>
+        </is>
+      </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>pwT3YbMpZPRMWIztNxj4</t>
+          <t>i0h3bc9nc9sTo9g09Oy0</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -5560,51 +5588,51 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1DMpSYJYgWlOR38X57hm</t>
+          <t>QEBs5TlLCAooCeKAZbVP</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:47:54.457Z</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>q2CAvgjDljuJAVBSUdMW</t>
-        </is>
-      </c>
-      <c r="K103" t="n">
-        <v>2</v>
-      </c>
-      <c r="L103" t="n">
-        <v>3</v>
-      </c>
+          <t>jWLNppzMVCRzzQeNb2rm</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5612,47 +5640,43 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>zYG7EHc4pWZ74BzujAld</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
           <t>eagles</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>lu9ZRFRIuRRYju3tjTgr</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>2025-01-31T10:00:47.167Z</t>
-        </is>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>q8NDD2tzYCIBAlDmIGrG</t>
+          <t>jyIT0QGt8WAsm1R1mZOY</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -5664,47 +5688,47 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0uSshiYpzXHdIn1okZsk</t>
+          <t>V0ZqSpgqaPINac5iHamt</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2025-01-31T09:50:40.579Z</t>
+          <t>2025-01-31T12:41:09.054Z</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>qLYX3KeDxkKG0ctfRW8u</t>
+          <t>kW2zvt1cQtDQBUk3BYxe</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -5721,12 +5745,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5736,31 +5760,31 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0bIsWmiOeRXEyKdMrHB1</t>
+          <t>t7wCa3WvfTddEoNPAtgp</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr"/>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2025-01-30T13:54:20.442Z</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>qM69gpRHSppZgpOisLcr</t>
-        </is>
-      </c>
-      <c r="K106" t="n">
-        <v>5</v>
-      </c>
-      <c r="L106" t="n">
-        <v>5</v>
-      </c>
+          <t>kghziYgKQHhNrHI29txZ</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5773,38 +5797,42 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>RZWUvL0VhZOyUcUeGEVN</t>
+          <t>XQC6q8CuG2Ce3rRcQbPI</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:45:50.020Z</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>qWclNG6sPFxHV00fvDmY</t>
+          <t>kigCc7yhyTjbKzmrclOU</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -5816,43 +5844,47 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>mwonPR4rJcKlHq6K1URw</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
           <t>gaussian_pro</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>9kLF0x1etY4N8dpAzZ6z</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:51:28.011Z</t>
+        </is>
+      </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>rHCnUVAVZbV2fMqzzAXD</t>
+          <t>kyDGjSrKtuB4seZiz5fp</t>
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
@@ -5869,27 +5901,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>sBV7Vhs5rYEu1Km8OMta</t>
+          <t>VaeIQFPXa7qr2TO0regy</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5900,7 +5932,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>s2WC05qIRPXr7mWVcMBJ</t>
+          <t>lPpSYvRzEPrmXokxdewG</t>
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
@@ -5912,12 +5944,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5927,32 +5959,32 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>sSTYfxUCdhqlvd02785r</t>
+          <t>jZFKuWgNQEGaT1W2xXVd</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2025-01-31T09:48:37.440Z</t>
+          <t>2025-01-30T13:53:26.466Z</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>sEE028d3SBcSEkZPfwFc</t>
+          <t>lmdDo4sVVlQNfMLaT1Jw</t>
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
@@ -5964,47 +5996,43 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>50f7c289-6a7d-4400-9f4f-32c59562faec</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>CtKVlPJTPA7w6S4L3fKY</t>
+          <t>wNmqgdMKte48MR0lSs8V</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>2025-01-30T16:15:10.845Z</t>
-        </is>
-      </c>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>sITToa9QvCFT9CnWZ9xy</t>
+          <t>m4FswNEJNTsojZRsHyXo</t>
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
@@ -6021,38 +6049,42 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>ZiahTJzG9WL68LnKtg2s</t>
+          <t>X54BtfxmEU4PEj2pXfs0</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr"/>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:35:04.502Z</t>
+        </is>
+      </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>ucXzcs3Ek9SP08O8CLjk</t>
+          <t>mw2ZckSiK5c2SIzvM3sB</t>
         </is>
       </c>
       <c r="K112" t="inlineStr"/>
@@ -6064,7 +6096,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -6079,32 +6111,28 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>4DabfkFLBojKxKol8UQf</t>
+          <t>0bIsWmiOeRXEyKdMrHB1</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:51:53.498Z</t>
-        </is>
-      </c>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>ugTLDhZDIEXqQGFVyESQ</t>
+          <t>nadf2hKw5G0sXVhtRBXb</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
@@ -6116,12 +6144,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -6136,27 +6164,23 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>tRFe7pAvuafgEf19DHbB</t>
+          <t>Yf4W2hBsBJLunivtbe0p</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>2025-01-30T16:16:02.364Z</t>
-        </is>
-      </c>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>un97gpZjSS63gTlzTks3</t>
+          <t>nfpbc9bLg6eG4214OzKL</t>
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
@@ -6168,51 +6192,51 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>3oCaNI7N11UjdwsgwiY6</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
           <t>eagles</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>xokGmEGRC6jlGHRcOllW</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:46:52.387Z</t>
-        </is>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>wM3wYcUKRs0mLPaYMXhg</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+          <t>oaxzMeJDa04t3NlPnZzJ</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>3</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6240,7 +6264,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -6253,14 +6277,10 @@
           <t>mcmc</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>2025-01-31T10:00:34.120Z</t>
-        </is>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>wmeHxpqSre3bMDGeyr1T</t>
+          <t>pL663xq2pmI7OwqkQS6N</t>
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
@@ -6277,27 +6297,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>tqYjhS9OxgqXk6wDoVTN</t>
+          <t>9cfqp5ZF6aZKsFMPR82A</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -6308,11 +6328,15 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>yIaUFKtxFaABzSfSGjzk</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+          <t>phxct5YusNvHcQksdyOb</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6335,28 +6359,28 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>STM4xI9X7gXL7C5l0YGV</t>
+          <t>4F14IrWf2S6Uwzm7ajl4</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>ylDNiU0dLUB75d4zaJRr</t>
+          <t>pwT3YbMpZPRMWIztNxj4</t>
         </is>
       </c>
       <c r="K118" t="inlineStr"/>
@@ -6368,51 +6392,51 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>sGEqUwHWXm4uNV50fIul</t>
+          <t>1DMpSYJYgWlOR38X57hm</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:56:11.080Z</t>
-        </is>
-      </c>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>zW21aznSQL1XJItViIUA</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+          <t>q2CAvgjDljuJAVBSUdMW</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>2</v>
+      </c>
+      <c r="L119" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6420,12 +6444,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6435,28 +6459,32 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>o285r0HU6gaGJge3A5Ll</t>
+          <t>lu9ZRFRIuRRYju3tjTgr</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2025-01-31T10:00:47.167Z</t>
+        </is>
+      </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>zXXodDaI2Gb3YSCMmt9N</t>
+          <t>q8NDD2tzYCIBAlDmIGrG</t>
         </is>
       </c>
       <c r="K120" t="inlineStr"/>
@@ -6468,51 +6496,1011 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0uSshiYpzXHdIn1okZsk</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:50:40.579Z</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>qLYX3KeDxkKG0ctfRW8u</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0bIsWmiOeRXEyKdMrHB1</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>qM69gpRHSppZgpOisLcr</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>5</v>
+      </c>
+      <c r="L122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>RZWUvL0VhZOyUcUeGEVN</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>qWclNG6sPFxHV00fvDmY</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>gaussian_pro</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>9kLF0x1etY4N8dpAzZ6z</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>rHCnUVAVZbV2fMqzzAXD</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>RBpxGywp1VWPYDuyRPyU</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:40:09.243Z</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>rwkNNtoUXUS98xhRHdku</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>sBV7Vhs5rYEu1Km8OMta</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>s2WC05qIRPXr7mWVcMBJ</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>sSTYfxUCdhqlvd02785r</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:48:37.440Z</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>sEE028d3SBcSEkZPfwFc</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>first</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>stump</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>CtKVlPJTPA7w6S4L3fKY</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2025-01-30T16:15:10.845Z</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>sITToa9QvCFT9CnWZ9xy</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>ZiahTJzG9WL68LnKtg2s</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>ucXzcs3Ek9SP08O8CLjk</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>4DabfkFLBojKxKol8UQf</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:51:53.498Z</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>ugTLDhZDIEXqQGFVyESQ</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>tRFe7pAvuafgEf19DHbB</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2025-01-30T16:16:02.364Z</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>un97gpZjSS63gTlzTks3</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>xokGmEGRC6jlGHRcOllW</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:46:52.387Z</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>wM3wYcUKRs0mLPaYMXhg</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>AXCAW0Sac9plQWEH2pi4</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2025-01-31T10:00:34.120Z</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>wmeHxpqSre3bMDGeyr1T</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>xh9segHQ5UyJB9dih4b0</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:39:27.132Z</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>wvhEHB6eb3E2ZELkEi2B</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>tqYjhS9OxgqXk6wDoVTN</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>yIaUFKtxFaABzSfSGjzk</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>STM4xI9X7gXL7C5l0YGV</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>ylDNiU0dLUB75d4zaJRr</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>sGEqUwHWXm4uNV50fIul</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:56:11.080Z</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>zW21aznSQL1XJItViIUA</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>o285r0HU6gaGJge3A5Ll</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>zXXodDaI2Gb3YSCMmt9N</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
         <is>
           <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>2yLwlpCr3EttnrWODivG</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>eagles</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr">
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
         <is>
           <t>zduB5CFox0wV2nvJUVeq</t>
         </is>
       </c>
-      <c r="K121" t="n">
+      <c r="K139" t="n">
         <v>4</v>
       </c>
-      <c r="L121" t="n">
+      <c r="L139" t="n">
         <v>3</v>
       </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2kRptcQx5PSo54pmymCi</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:27:09.372Z</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>zkB9xmFRfhyqLZpQFk6W</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
